--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N2">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O2">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P2">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q2">
-        <v>40.7016750413565</v>
+        <v>108.727527558386</v>
       </c>
       <c r="R2">
-        <v>162.806700165426</v>
+        <v>434.9101102335439</v>
       </c>
       <c r="S2">
-        <v>0.0008288971510212837</v>
+        <v>0.001702307518937885</v>
       </c>
       <c r="T2">
-        <v>0.0004353986427903709</v>
+        <v>0.0008748352623801022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P3">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q3">
-        <v>1611.690246024684</v>
+        <v>1069.992926478952</v>
       </c>
       <c r="R3">
-        <v>9670.141476148105</v>
+        <v>6419.957558873712</v>
       </c>
       <c r="S3">
-        <v>0.03282237037913634</v>
+        <v>0.0167524917089406</v>
       </c>
       <c r="T3">
-        <v>0.02586113759463004</v>
+        <v>0.01291394502756082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,78 +667,78 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N4">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O4">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P4">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q4">
-        <v>2.513781260542</v>
+        <v>514.800936602959</v>
       </c>
       <c r="R4">
-        <v>15.082687563252</v>
+        <v>2059.203746411836</v>
       </c>
       <c r="S4">
-        <v>5.119362097596146E-05</v>
+        <v>0.008060051808543965</v>
       </c>
       <c r="T4">
-        <v>4.033606533391128E-05</v>
+        <v>0.004142152613603103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>1051.17572</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7183095</v>
+        <v>4.020434</v>
       </c>
       <c r="N5">
-        <v>49.436619</v>
+        <v>8.040868</v>
       </c>
       <c r="O5">
-        <v>0.3682859456189059</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P5">
-        <v>0.2814752051723923</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q5">
-        <v>1006.899237517727</v>
+        <v>1408.727534887493</v>
       </c>
       <c r="R5">
-        <v>4027.596950070909</v>
+        <v>8452.365209324958</v>
       </c>
       <c r="S5">
-        <v>0.02050568947091006</v>
+        <v>0.02205593678644126</v>
       </c>
       <c r="T5">
-        <v>0.01077111841211503</v>
+        <v>0.01700219645770361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>1051.17572</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.772676333333333</v>
+        <v>39.565288</v>
       </c>
       <c r="N6">
-        <v>5.318029</v>
+        <v>118.695864</v>
       </c>
       <c r="O6">
-        <v>0.02641166782452989</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P6">
-        <v>0.03027903878070085</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q6">
-        <v>72.20989155423651</v>
+        <v>13863.35670013579</v>
       </c>
       <c r="R6">
-        <v>433.2593493254191</v>
+        <v>124770.2103012221</v>
       </c>
       <c r="S6">
-        <v>0.001470567816288763</v>
+        <v>0.2170535546822416</v>
       </c>
       <c r="T6">
-        <v>0.001158677944340443</v>
+        <v>0.2509791727018612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I7">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J7">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9991829999999999</v>
+        <v>19.035871</v>
       </c>
       <c r="N7">
-        <v>1.998366</v>
+        <v>38.071742</v>
       </c>
       <c r="O7">
-        <v>0.01488714493203248</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P7">
-        <v>0.01137801272088475</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q7">
-        <v>350.10563647892</v>
+        <v>6670.015134750707</v>
       </c>
       <c r="R7">
-        <v>2100.63381887352</v>
+        <v>40020.09080850424</v>
       </c>
       <c r="S7">
-        <v>0.007129966133801608</v>
+        <v>0.104430011150749</v>
       </c>
       <c r="T7">
-        <v>0.005617785464650758</v>
+        <v>0.08050166188165329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>350.3919066666667</v>
+        <v>384.09258</v>
       </c>
       <c r="H8">
-        <v>1051.17572</v>
+        <v>1152.27774</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.565288</v>
+        <v>4.020434</v>
       </c>
       <c r="N8">
-        <v>118.695864</v>
+        <v>8.040868</v>
       </c>
       <c r="O8">
-        <v>0.5894957947979553</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P8">
-        <v>0.6758136650185235</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q8">
-        <v>13863.35670013579</v>
+        <v>1544.21886777972</v>
       </c>
       <c r="R8">
-        <v>124770.2103012221</v>
+        <v>9265.31320667832</v>
       </c>
       <c r="S8">
-        <v>0.2823298269827521</v>
+        <v>0.02417727551190338</v>
       </c>
       <c r="T8">
-        <v>0.3336765634990603</v>
+        <v>0.01863746673041375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>350.3919066666667</v>
+        <v>384.09258</v>
       </c>
       <c r="H9">
-        <v>1051.17572</v>
+        <v>1152.27774</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06171066666666666</v>
+        <v>39.565288</v>
       </c>
       <c r="N9">
-        <v>0.185132</v>
+        <v>118.695864</v>
       </c>
       <c r="O9">
-        <v>0.0009194468265763251</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P9">
-        <v>0.001054078307498645</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q9">
-        <v>21.62291815500445</v>
+        <v>15196.73354636304</v>
       </c>
       <c r="R9">
-        <v>194.60626339504</v>
+        <v>136770.6019172674</v>
       </c>
       <c r="S9">
-        <v>0.000440354733244714</v>
+        <v>0.2379297530276096</v>
       </c>
       <c r="T9">
-        <v>0.0005204411297238465</v>
+        <v>0.2751183350277253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>350.3919066666667</v>
+        <v>384.09258</v>
       </c>
       <c r="H10">
-        <v>1051.17572</v>
+        <v>1152.27774</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.7183095</v>
+        <v>19.035871</v>
       </c>
       <c r="N10">
-        <v>49.436619</v>
+        <v>38.071742</v>
       </c>
       <c r="O10">
-        <v>0.3682859456189059</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P10">
-        <v>0.2814752051723923</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q10">
-        <v>8661.09559528178</v>
+        <v>7311.53680493718</v>
       </c>
       <c r="R10">
-        <v>51966.57357169068</v>
+        <v>43869.22082962308</v>
       </c>
       <c r="S10">
-        <v>0.1763848160145104</v>
+        <v>0.1144740835880036</v>
       </c>
       <c r="T10">
-        <v>0.1389757029691646</v>
+        <v>0.08824430706907463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>350.3919066666667</v>
+        <v>16.362698</v>
       </c>
       <c r="H11">
-        <v>1051.17572</v>
+        <v>32.725396</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.772676333333333</v>
+        <v>4.020434</v>
       </c>
       <c r="N11">
-        <v>5.318029</v>
+        <v>8.040868</v>
       </c>
       <c r="O11">
-        <v>0.02641166782452989</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P11">
-        <v>0.03027903878070085</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q11">
-        <v>621.1314403395422</v>
+        <v>65.78514737093201</v>
       </c>
       <c r="R11">
-        <v>5590.18296305588</v>
+        <v>263.140589483728</v>
       </c>
       <c r="S11">
-        <v>0.01264945682908764</v>
+        <v>0.001029974225651718</v>
       </c>
       <c r="T11">
-        <v>0.01494998714789544</v>
+        <v>0.0005293155096353899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>243.8287033333334</v>
+        <v>16.362698</v>
       </c>
       <c r="H12">
-        <v>731.4861100000001</v>
+        <v>32.725396</v>
       </c>
       <c r="I12">
-        <v>0.3332781281688242</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J12">
-        <v>0.3435812836494235</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9991829999999999</v>
+        <v>39.565288</v>
       </c>
       <c r="N12">
-        <v>1.998366</v>
+        <v>118.695864</v>
       </c>
       <c r="O12">
-        <v>0.01488714493203248</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P12">
-        <v>0.01137801272088475</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q12">
-        <v>243.62949528271</v>
+        <v>647.3948588270241</v>
       </c>
       <c r="R12">
-        <v>1461.77697169626</v>
+        <v>3884.369152962144</v>
       </c>
       <c r="S12">
-        <v>0.004961559796725783</v>
+        <v>0.01013602682458839</v>
       </c>
       <c r="T12">
-        <v>0.003909272216021053</v>
+        <v>0.007813529801107659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>243.8287033333334</v>
+        <v>16.362698</v>
       </c>
       <c r="H13">
-        <v>731.4861100000001</v>
+        <v>32.725396</v>
       </c>
       <c r="I13">
-        <v>0.3332781281688242</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J13">
-        <v>0.3435812836494235</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.565288</v>
+        <v>19.035871</v>
       </c>
       <c r="N13">
-        <v>118.695864</v>
+        <v>38.071742</v>
       </c>
       <c r="O13">
-        <v>0.5894957947979553</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P13">
-        <v>0.6758136650185235</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q13">
-        <v>9647.152870049895</v>
+        <v>311.478208339958</v>
       </c>
       <c r="R13">
-        <v>86824.37583044905</v>
+        <v>1245.912833359832</v>
       </c>
       <c r="S13">
-        <v>0.1964660550536559</v>
+        <v>0.004876701493627552</v>
       </c>
       <c r="T13">
-        <v>0.2321969265348858</v>
+        <v>0.002506192555261084</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>130.513411</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06171066666666666</v>
+        <v>4.020434</v>
       </c>
       <c r="N14">
-        <v>0.185132</v>
+        <v>8.040868</v>
       </c>
       <c r="O14">
-        <v>0.0009194468265763251</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P14">
-        <v>0.001054078307498645</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q14">
-        <v>15.04683183516889</v>
+        <v>174.9068516801246</v>
       </c>
       <c r="R14">
-        <v>135.42148651652</v>
+        <v>1049.441110080748</v>
       </c>
       <c r="S14">
-        <v>0.0003064315173121232</v>
+        <v>0.002738453227210031</v>
       </c>
       <c r="T14">
-        <v>0.000362161577957396</v>
+        <v>0.002110983551053686</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>130.513411</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.7183095</v>
+        <v>39.565288</v>
       </c>
       <c r="N15">
-        <v>49.436619</v>
+        <v>118.695864</v>
       </c>
       <c r="O15">
-        <v>0.3682859456189059</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P15">
-        <v>0.2814752051723923</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q15">
-        <v>6027.033353977015</v>
+        <v>1721.266898025789</v>
       </c>
       <c r="R15">
-        <v>36162.20012386209</v>
+        <v>15491.4020822321</v>
       </c>
       <c r="S15">
-        <v>0.1227416505867543</v>
+        <v>0.02694925239640654</v>
       </c>
       <c r="T15">
-        <v>0.0967096123086154</v>
+        <v>0.03116143884989846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>130.513411</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.772676333333333</v>
+        <v>19.035871</v>
       </c>
       <c r="N16">
-        <v>5.318029</v>
+        <v>38.071742</v>
       </c>
       <c r="O16">
-        <v>0.02641166782452989</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P16">
-        <v>0.03027903878070085</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q16">
-        <v>432.2293717863545</v>
+        <v>828.1454851886602</v>
       </c>
       <c r="R16">
-        <v>3890.06434607719</v>
+        <v>4968.872911131962</v>
       </c>
       <c r="S16">
-        <v>0.008802431214376084</v>
+        <v>0.01296597391542899</v>
       </c>
       <c r="T16">
-        <v>0.01040331101194387</v>
+        <v>0.009995042963267121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.082339</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H17">
-        <v>50.16467799999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I17">
-        <v>0.03428388404538221</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J17">
-        <v>0.02356250409334497</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N17">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O17">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P17">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q17">
-        <v>25.061846729037</v>
+        <v>798.2615797759534</v>
       </c>
       <c r="R17">
-        <v>100.247386916148</v>
+        <v>4789.56947865572</v>
       </c>
       <c r="S17">
-        <v>0.0005103891506166008</v>
+        <v>0.01249809243203959</v>
       </c>
       <c r="T17">
-        <v>0.0002680944713099782</v>
+        <v>0.009634368511914924</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.082339</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H18">
-        <v>50.16467799999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I18">
-        <v>0.03428388404538221</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J18">
-        <v>0.02356250409334497</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,828 +1559,84 @@
         <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P18">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q18">
-        <v>992.3899662486319</v>
+        <v>7855.731322332507</v>
       </c>
       <c r="R18">
-        <v>5954.339797491792</v>
+        <v>70701.58190099256</v>
       </c>
       <c r="S18">
-        <v>0.02021020547409352</v>
+        <v>0.1229943400449471</v>
       </c>
       <c r="T18">
-        <v>0.01592386224833743</v>
+        <v>0.1422184389317343</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.082339</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H19">
-        <v>50.16467799999999</v>
+        <v>595.65329</v>
       </c>
       <c r="I19">
-        <v>0.03428388404538221</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J19">
-        <v>0.02356250409334497</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N19">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O19">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P19">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q19">
-        <v>1.547847861249333</v>
+        <v>3779.593063055197</v>
       </c>
       <c r="R19">
-        <v>9.287087167495999</v>
+        <v>22677.55837833118</v>
       </c>
       <c r="S19">
-        <v>3.152220838823737E-05</v>
+        <v>0.05917571965672908</v>
       </c>
       <c r="T19">
-        <v>2.483672443514295E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>25.082339</v>
-      </c>
-      <c r="H20">
-        <v>50.16467799999999</v>
-      </c>
-      <c r="I20">
-        <v>0.03428388404538221</v>
-      </c>
-      <c r="J20">
-        <v>0.02356250409334497</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>24.7183095</v>
-      </c>
-      <c r="N20">
-        <v>49.436619</v>
-      </c>
-      <c r="O20">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P20">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q20">
-        <v>619.9930183859204</v>
-      </c>
-      <c r="R20">
-        <v>2479.972073543682</v>
-      </c>
-      <c r="S20">
-        <v>0.01262627265514251</v>
-      </c>
-      <c r="T20">
-        <v>0.00663226067404961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>25.082339</v>
-      </c>
-      <c r="H21">
-        <v>50.16467799999999</v>
-      </c>
-      <c r="I21">
-        <v>0.03428388404538221</v>
-      </c>
-      <c r="J21">
-        <v>0.02356250409334497</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N21">
-        <v>5.318029</v>
-      </c>
-      <c r="O21">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P21">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q21">
-        <v>44.46286872994366</v>
-      </c>
-      <c r="R21">
-        <v>266.777212379662</v>
-      </c>
-      <c r="S21">
-        <v>0.0009054945571413348</v>
-      </c>
-      <c r="T21">
-        <v>0.0007134499752128149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>22.832077</v>
-      </c>
-      <c r="H22">
-        <v>68.49623099999999</v>
-      </c>
-      <c r="I22">
-        <v>0.03120810544755168</v>
-      </c>
-      <c r="J22">
-        <v>0.03217289111905</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N22">
-        <v>1.998366</v>
-      </c>
-      <c r="O22">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P22">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q22">
-        <v>22.813423193091</v>
-      </c>
-      <c r="R22">
-        <v>136.880539158546</v>
-      </c>
-      <c r="S22">
-        <v>0.0004645995888518542</v>
-      </c>
-      <c r="T22">
-        <v>0.000366063564420191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>22.832077</v>
-      </c>
-      <c r="H23">
-        <v>68.49623099999999</v>
-      </c>
-      <c r="I23">
-        <v>0.03120810544755168</v>
-      </c>
-      <c r="J23">
-        <v>0.03217289111905</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>39.565288</v>
-      </c>
-      <c r="N23">
-        <v>118.695864</v>
-      </c>
-      <c r="O23">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P23">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q23">
-        <v>903.357702143176</v>
-      </c>
-      <c r="R23">
-        <v>8130.219319288583</v>
-      </c>
-      <c r="S23">
-        <v>0.01839704692494288</v>
-      </c>
-      <c r="T23">
-        <v>0.02174287946140709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>22.832077</v>
-      </c>
-      <c r="H24">
-        <v>68.49623099999999</v>
-      </c>
-      <c r="I24">
-        <v>0.03120810544755168</v>
-      </c>
-      <c r="J24">
-        <v>0.03217289111905</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.185132</v>
-      </c>
-      <c r="O24">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P24">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q24">
-        <v>1.408982693054667</v>
-      </c>
-      <c r="R24">
-        <v>12.680844237492</v>
-      </c>
-      <c r="S24">
-        <v>2.869419351721072E-05</v>
-      </c>
-      <c r="T24">
-        <v>3.39127466181064E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>22.832077</v>
-      </c>
-      <c r="H25">
-        <v>68.49623099999999</v>
-      </c>
-      <c r="I25">
-        <v>0.03120810544755168</v>
-      </c>
-      <c r="J25">
-        <v>0.03217289111905</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.7183095</v>
-      </c>
-      <c r="N25">
-        <v>49.436619</v>
-      </c>
-      <c r="O25">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P25">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q25">
-        <v>564.3703458138315</v>
-      </c>
-      <c r="R25">
-        <v>3386.222074882989</v>
-      </c>
-      <c r="S25">
-        <v>0.0114935066257261</v>
-      </c>
-      <c r="T25">
-        <v>0.009055871128723638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>22.832077</v>
-      </c>
-      <c r="H26">
-        <v>68.49623099999999</v>
-      </c>
-      <c r="I26">
-        <v>0.03120810544755168</v>
-      </c>
-      <c r="J26">
-        <v>0.03217289111905</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N26">
-        <v>5.318029</v>
-      </c>
-      <c r="O26">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P26">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q26">
-        <v>40.47388253874433</v>
-      </c>
-      <c r="R26">
-        <v>364.264942848699</v>
-      </c>
-      <c r="S26">
-        <v>0.0008242581145136368</v>
-      </c>
-      <c r="T26">
-        <v>0.000974164217880981</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>48.737294</v>
-      </c>
-      <c r="H27">
-        <v>146.211882</v>
-      </c>
-      <c r="I27">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J27">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N27">
-        <v>1.998366</v>
-      </c>
-      <c r="O27">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P27">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q27">
-        <v>48.697475630802</v>
-      </c>
-      <c r="R27">
-        <v>292.184853784812</v>
-      </c>
-      <c r="S27">
-        <v>0.0009917331110153465</v>
-      </c>
-      <c r="T27">
-        <v>0.0007813983616924027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>48.737294</v>
-      </c>
-      <c r="H28">
-        <v>146.211882</v>
-      </c>
-      <c r="I28">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J28">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>39.565288</v>
-      </c>
-      <c r="N28">
-        <v>118.695864</v>
-      </c>
-      <c r="O28">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P28">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q28">
-        <v>1928.305073450672</v>
-      </c>
-      <c r="R28">
-        <v>17354.74566105605</v>
-      </c>
-      <c r="S28">
-        <v>0.03927028998337458</v>
-      </c>
-      <c r="T28">
-        <v>0.04641229568020285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>48.737294</v>
-      </c>
-      <c r="H29">
-        <v>146.211882</v>
-      </c>
-      <c r="I29">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J29">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M29">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N29">
-        <v>0.185132</v>
-      </c>
-      <c r="O29">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P29">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q29">
-        <v>3.007610904269333</v>
-      </c>
-      <c r="R29">
-        <v>27.068498138424</v>
-      </c>
-      <c r="S29">
-        <v>6.125055313807819E-05</v>
-      </c>
-      <c r="T29">
-        <v>7.239006343024146E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>48.737294</v>
-      </c>
-      <c r="H30">
-        <v>146.211882</v>
-      </c>
-      <c r="I30">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J30">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>24.7183095</v>
-      </c>
-      <c r="N30">
-        <v>49.436619</v>
-      </c>
-      <c r="O30">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P30">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q30">
-        <v>1204.703517284493</v>
-      </c>
-      <c r="R30">
-        <v>7228.221103706958</v>
-      </c>
-      <c r="S30">
-        <v>0.02453401026586241</v>
-      </c>
-      <c r="T30">
-        <v>0.01933063967972409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>48.737294</v>
-      </c>
-      <c r="H31">
-        <v>146.211882</v>
-      </c>
-      <c r="I31">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J31">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N31">
-        <v>5.318029</v>
-      </c>
-      <c r="O31">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P31">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q31">
-        <v>86.39544762450866</v>
-      </c>
-      <c r="R31">
-        <v>777.559028620578</v>
-      </c>
-      <c r="S31">
-        <v>0.001759459293122425</v>
-      </c>
-      <c r="T31">
-        <v>0.002079448483427304</v>
+        <v>0.04561661655415174</v>
       </c>
     </row>
   </sheetData>
